--- a/outputs-r202/test-g__Oribacterium.xlsx
+++ b/outputs-r202/test-g__Oribacterium.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,14 +119,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +143,7 @@
   <dimension ref="A1:V4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="33" customWidth="true"/>
     <col min="3" max="3" width="24.5703125" customWidth="true"/>
     <col min="4" max="4" width="22.42578125" customWidth="true"/>
@@ -164,136 +168,136 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="C2">
-        <v>4.2224413896096567e-06</v>
+        <v>2.9391648288216597e-06</v>
       </c>
       <c r="D2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="F2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="G2">
-        <v>3.9637892507049408e-11</v>
+        <v>1.0610039786221179e-13</v>
       </c>
       <c r="H2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="I2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="J2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="K2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="L2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="M2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="N2">
-        <v>2.6235490175618518e-11</v>
+        <v>7.6395388573251085e-12</v>
       </c>
       <c r="O2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="P2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="R2">
-        <v>0.99999536678203649</v>
+        <v>0.99998948449254543</v>
       </c>
       <c r="S2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="T2">
-        <v>4.107103674594815e-07</v>
+        <v>7.5763345469804995e-06</v>
       </c>
       <c r="U2">
-        <v>2.2204455348667933e-14</v>
+        <v>2.2204448818307104e-14</v>
       </c>
       <c r="V2">
         <v>17</v>
